--- a/工程表.xlsx
+++ b/工程表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="399">
   <si>
     <t>#</t>
   </si>
@@ -2884,6 +2884,34 @@
   </si>
   <si>
     <t>RF_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status/EPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status&amp;0xfffffffd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mfc0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mtc0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP0_WE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Din&lt;=CP0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3058,7 +3086,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -3265,32 +3293,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -3310,136 +3312,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3490,51 +3362,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -3551,7 +3378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3644,25 +3471,25 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3680,139 +3507,16 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3877,6 +3581,12 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3886,17 +3596,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4180,10 +3884,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4231,72 +3935,72 @@
   <sheetData>
     <row r="1" spans="1:45" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="112" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="102" t="s">
+      <c r="J1" s="67"/>
+      <c r="K1" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102" t="s">
+      <c r="L1" s="61"/>
+      <c r="M1" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="102" t="s">
+      <c r="N1" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="103"/>
+      <c r="O1" s="62"/>
       <c r="P1" s="36"/>
-      <c r="Q1" s="98" t="s">
+      <c r="Q1" s="57" t="s">
         <v>275</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="96" t="s">
+      <c r="R1" s="58"/>
+      <c r="S1" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="T1" s="93" t="s">
+      <c r="T1" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="94"/>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94"/>
-      <c r="AM1" s="95"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="54"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="9" t="s">
         <v>123</v>
       </c>
@@ -4309,10 +4013,10 @@
       <c r="H2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="88" t="s">
+      <c r="I2" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="J2" s="88" t="s">
+      <c r="J2" s="47" t="s">
         <v>387</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -4321,7 +4025,7 @@
       <c r="L2" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="M2" s="106"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="9" t="s">
         <v>91</v>
       </c>
@@ -4335,7 +4039,7 @@
       <c r="R2" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="97"/>
+      <c r="S2" s="56"/>
       <c r="T2" s="8" t="s">
         <v>208</v>
       </c>
@@ -5855,7 +5559,7 @@
         <v>381</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="I32" s="33"/>
       <c r="J32" s="33"/>
@@ -5865,7 +5569,7 @@
       <c r="N32" s="33"/>
       <c r="O32" s="34"/>
       <c r="P32" s="35"/>
-      <c r="Q32" s="87"/>
+      <c r="Q32" s="46"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
@@ -5898,7 +5602,7 @@
       <c r="N33" s="33"/>
       <c r="O33" s="34"/>
       <c r="P33" s="35"/>
-      <c r="Q33" s="87"/>
+      <c r="Q33" s="46"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
@@ -5915,7 +5619,9 @@
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="I34" s="21" t="s">
+        <v>393</v>
+      </c>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
@@ -5925,24 +5631,24 @@
       <c r="P34" s="21"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="D35" s="100" t="s">
+      <c r="D35" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="E35" s="100" t="s">
+      <c r="E35" s="59" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
@@ -6684,7 +6390,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="68" t="s">
         <v>293</v>
       </c>
       <c r="C28" s="6">
@@ -6698,7 +6404,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="108"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="6">
         <v>8</v>
       </c>
@@ -6737,291 +6443,291 @@
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="109" t="s">
+    <row r="34" spans="2:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-    </row>
-    <row r="35" spans="2:8" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="90" t="s">
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+    </row>
+    <row r="35" spans="2:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="C35" s="90" t="s">
+      <c r="C35" s="49" t="s">
         <v>348</v>
       </c>
-      <c r="D35" s="90" t="s">
+      <c r="D35" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="E35" s="90" t="s">
+      <c r="E35" s="49" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="90" t="s">
+    <row r="36" spans="2:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="D36" s="90">
+      <c r="D36" s="49">
         <v>32</v>
       </c>
-      <c r="E36" s="91" t="s">
+      <c r="E36" s="50" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="90" t="s">
+    <row r="37" spans="2:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="C37" s="90" t="s">
+      <c r="C37" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="D37" s="90">
+      <c r="D37" s="49">
         <v>32</v>
       </c>
-      <c r="E37" s="91" t="s">
+      <c r="E37" s="50" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="90" t="s">
+    <row r="38" spans="2:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="49" t="s">
         <v>355</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="D38" s="90">
+      <c r="D38" s="49">
         <v>4</v>
       </c>
-      <c r="E38" s="92" t="s">
+      <c r="E38" s="51" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="90" t="s">
+    <row r="39" spans="2:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="C39" s="90" t="s">
+      <c r="C39" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="D39" s="90">
+      <c r="D39" s="49">
         <v>32</v>
       </c>
-      <c r="E39" s="91" t="s">
+      <c r="E39" s="50" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="90" t="s">
+    <row r="40" spans="2:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="D40" s="90">
+      <c r="D40" s="49">
         <v>32</v>
       </c>
-      <c r="E40" s="91" t="s">
+      <c r="E40" s="50" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="90" t="s">
+    <row r="41" spans="2:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="C41" s="90" t="s">
+      <c r="C41" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="D41" s="90">
+      <c r="D41" s="49">
         <v>1</v>
       </c>
-      <c r="E41" s="91" t="s">
+      <c r="E41" s="50" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="90" t="s">
+    <row r="42" spans="2:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="C42" s="90" t="s">
+      <c r="C42" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="D42" s="90">
+      <c r="D42" s="49">
         <v>1</v>
       </c>
-      <c r="E42" s="92" t="s">
+      <c r="E42" s="51" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="90" t="s">
+    <row r="43" spans="2:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="C43" s="90" t="s">
+      <c r="C43" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="D43" s="90">
+      <c r="D43" s="49">
         <v>1</v>
       </c>
-      <c r="E43" s="91" t="s">
+      <c r="E43" s="50" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F45" s="90" t="s">
+      <c r="F45" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="G45" s="90" t="s">
+      <c r="G45" s="49" t="s">
         <v>369</v>
       </c>
-      <c r="H45" s="90" t="s">
+      <c r="H45" s="49" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="F46" s="90">
+      <c r="F46" s="49">
         <v>0</v>
       </c>
-      <c r="G46" s="90">
+      <c r="G46" s="49">
         <v>0</v>
       </c>
-      <c r="H46" s="91" t="s">
+      <c r="H46" s="50" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="F47" s="90">
+      <c r="F47" s="49">
         <v>1</v>
       </c>
-      <c r="G47" s="90">
+      <c r="G47" s="49">
         <v>1</v>
       </c>
-      <c r="H47" s="91" t="s">
+      <c r="H47" s="50" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="F48" s="90">
+      <c r="F48" s="49">
         <v>10</v>
       </c>
-      <c r="G48" s="90">
+      <c r="G48" s="49">
         <v>2</v>
       </c>
-      <c r="H48" s="91" t="s">
+      <c r="H48" s="50" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="49" spans="6:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="F49" s="90">
+      <c r="F49" s="49">
         <v>11</v>
       </c>
-      <c r="G49" s="90">
+      <c r="G49" s="49">
         <v>3</v>
       </c>
-      <c r="H49" s="91" t="s">
+      <c r="H49" s="50" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F50" s="90">
+      <c r="F50" s="49">
         <v>100</v>
       </c>
-      <c r="G50" s="90">
+      <c r="G50" s="49">
         <v>4</v>
       </c>
-      <c r="H50" s="91" t="s">
+      <c r="H50" s="50" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F51" s="90">
+      <c r="F51" s="49">
         <v>101</v>
       </c>
-      <c r="G51" s="90">
+      <c r="G51" s="49">
         <v>5</v>
       </c>
-      <c r="H51" s="91" t="s">
+      <c r="H51" s="50" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="52" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F52" s="90">
+      <c r="F52" s="49">
         <v>110</v>
       </c>
-      <c r="G52" s="90">
+      <c r="G52" s="49">
         <v>6</v>
       </c>
-      <c r="H52" s="91" t="s">
+      <c r="H52" s="50" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F53" s="90">
+      <c r="F53" s="49">
         <v>111</v>
       </c>
-      <c r="G53" s="90">
+      <c r="G53" s="49">
         <v>7</v>
       </c>
-      <c r="H53" s="91" t="s">
+      <c r="H53" s="50" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="54" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F54" s="90">
+      <c r="F54" s="49">
         <v>1000</v>
       </c>
-      <c r="G54" s="90">
+      <c r="G54" s="49">
         <v>8</v>
       </c>
-      <c r="H54" s="91" t="s">
+      <c r="H54" s="50" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="55" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F55" s="90">
+      <c r="F55" s="49">
         <v>1001</v>
       </c>
-      <c r="G55" s="90">
+      <c r="G55" s="49">
         <v>9</v>
       </c>
-      <c r="H55" s="91" t="s">
+      <c r="H55" s="50" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="56" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F56" s="90">
+      <c r="F56" s="49">
         <v>1010</v>
       </c>
-      <c r="G56" s="90">
+      <c r="G56" s="49">
         <v>10</v>
       </c>
-      <c r="H56" s="91" t="s">
+      <c r="H56" s="50" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="57" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F57" s="90">
+      <c r="F57" s="49">
         <v>1011</v>
       </c>
-      <c r="G57" s="90">
+      <c r="G57" s="49">
         <v>11</v>
       </c>
-      <c r="H57" s="91" t="s">
+      <c r="H57" s="50" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="58" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F58" s="90">
+      <c r="F58" s="49">
         <v>1100</v>
       </c>
-      <c r="G58" s="90">
+      <c r="G58" s="49">
         <v>12</v>
       </c>
-      <c r="H58" s="91" t="s">
+      <c r="H58" s="50" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7038,10 +6744,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC28" sqref="A3:AC28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7073,11 +6779,13 @@
     <col min="27" max="27" width="3.5" style="41" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="3" style="41" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="3.375" style="41" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.25" style="41" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="41"/>
+    <col min="30" max="30" width="5.5" style="41" customWidth="1"/>
+    <col min="31" max="31" width="4.75" style="41" customWidth="1"/>
+    <col min="32" max="32" width="6.125" style="41" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="38"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -7107,8 +6815,11 @@
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
       <c r="AC1" s="40"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -7138,150 +6849,165 @@
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="24"/>
-    </row>
-    <row r="3" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="43" t="s">
+      <c r="N3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="R3" s="43" t="s">
+      <c r="R3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="S3" s="43" t="s">
+      <c r="S3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="43" t="s">
+      <c r="T3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="43" t="s">
+      <c r="U3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="43" t="s">
+      <c r="V3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="W3" s="43" t="s">
+      <c r="W3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="X3" s="43" t="s">
+      <c r="X3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="43" t="s">
+      <c r="Y3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="43" t="s">
+      <c r="Z3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="AA3" s="43" t="s">
+      <c r="AA3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="43" t="s">
+      <c r="AB3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" s="44" t="s">
+      <c r="AC3" s="14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="AD3" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="P4" s="47" t="s">
+      <c r="P4" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47" t="s">
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="X4" s="47" t="s">
+      <c r="X4" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47" t="s">
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="49"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -7332,15 +7058,18 @@
       <c r="AB5" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="AC5" s="24" t="s">
+      <c r="AC5" s="8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
         <v>331</v>
       </c>
@@ -7387,454 +7116,489 @@
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
-      <c r="AC6" s="24"/>
-    </row>
-    <row r="7" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27" t="s">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27" t="s">
+      <c r="O7" s="8"/>
+      <c r="P7" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="27" t="s">
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="V7" s="27" t="s">
+      <c r="V7" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="W7" s="27" t="s">
+      <c r="W7" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27" t="s">
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27" t="s">
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="AB7" s="27" t="s">
+      <c r="AB7" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="AC7" s="28" t="s">
+      <c r="AC7" s="8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="56"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="59"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A10" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="J10" s="58" t="s">
+      <c r="J10" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="L10" s="58" t="s">
+      <c r="L10" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="M10" s="58" t="s">
+      <c r="M10" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="N10" s="58" t="s">
+      <c r="N10" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="O10" s="58" t="s">
+      <c r="O10" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="59"/>
-    </row>
-    <row r="11" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="61"/>
-      <c r="AC11" s="62"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64" t="s">
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="K12" s="64" t="s">
+      <c r="K12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="M12" s="64" t="s">
+      <c r="M12" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="N12" s="64" t="s">
+      <c r="N12" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="O12" s="64" t="s">
+      <c r="O12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64" t="s">
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64" t="s">
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="V12" s="64" t="s">
+      <c r="V12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="W12" s="64" t="s">
+      <c r="W12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="X12" s="64" t="s">
+      <c r="X12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="Y12" s="64" t="s">
+      <c r="Y12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="Z12" s="64" t="s">
+      <c r="Z12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="AA12" s="64" t="s">
+      <c r="AA12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="AB12" s="64" t="s">
+      <c r="AB12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="AC12" s="65"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="59"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="AB14" s="58" t="s">
+      <c r="AB14" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="AC14" s="59"/>
-    </row>
-    <row r="15" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="28"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="66" t="s">
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="49"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="8" t="s">
         <v>201</v>
       </c>
       <c r="B17" s="8"/>
@@ -7866,10 +7630,13 @@
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
-      <c r="AC17" s="24"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="8" t="s">
         <v>200</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -7923,253 +7690,272 @@
       <c r="AB18" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="AC18" s="24" t="s">
+      <c r="AC18" s="8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A19" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="62"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64" t="s">
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="T20" s="64" t="s">
+      <c r="T20" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="U20" s="64" t="s">
+      <c r="U20" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="V20" s="64" t="s">
+      <c r="V20" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="W20" s="64" t="s">
+      <c r="W20" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="X20" s="64" t="s">
+      <c r="X20" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="Z20" s="64" t="s">
+      <c r="Z20" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="AA20" s="64" t="s">
+      <c r="AA20" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="AB20" s="64" t="s">
+      <c r="AB20" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="AC20" s="65" t="s">
+      <c r="AC20" s="42" t="s">
         <v>332</v>
       </c>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="58" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="Z21" s="58" t="s">
+      <c r="Z21" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="59"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58" t="s">
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="R22" s="58" t="s">
+      <c r="R22" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="59"/>
-    </row>
-    <row r="23" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A23" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="62"/>
-    </row>
-    <row r="24" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="63" t="s">
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+    </row>
+    <row r="24" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="65"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
       <c r="AG24" s="41"/>
       <c r="AH24" s="41"/>
       <c r="AI24" s="41"/>
@@ -8179,42 +7965,43 @@
       <c r="AM24" s="41"/>
       <c r="AN24" s="41"/>
     </row>
-    <row r="25" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+    <row r="25" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="59"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
       <c r="AG25" s="41"/>
       <c r="AH25" s="41"/>
       <c r="AI25" s="41"/>
@@ -8224,42 +8011,43 @@
       <c r="AM25" s="41"/>
       <c r="AN25" s="41"/>
     </row>
-    <row r="26" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="59"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="41"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
       <c r="AG26" s="41"/>
       <c r="AH26" s="41"/>
       <c r="AI26" s="41"/>
@@ -8270,358 +8058,160 @@
       <c r="AN26" s="41"/>
     </row>
     <row r="27" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="70"/>
-    </row>
-    <row r="28" spans="1:40" s="81" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+    </row>
+    <row r="28" spans="1:40" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="84"/>
-      <c r="X28" s="84"/>
-      <c r="Y28" s="84"/>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="84"/>
-      <c r="AB28" s="84"/>
-      <c r="AC28" s="85" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="AD28" s="82"/>
-    </row>
-    <row r="29" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="110"/>
-      <c r="T29" s="110"/>
-      <c r="U29" s="110"/>
-      <c r="V29" s="110"/>
-      <c r="W29" s="110"/>
-      <c r="X29" s="110"/>
-      <c r="Y29" s="110"/>
-      <c r="Z29" s="110"/>
-      <c r="AA29" s="110"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="111"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A29" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF29" s="44" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A30" s="74"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="72"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A31" s="76"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="73"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="73"/>
-      <c r="Z31" s="73"/>
-      <c r="AA31" s="73"/>
-      <c r="AB31" s="73"/>
-      <c r="AC31" s="73"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A32" s="76"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="73"/>
-      <c r="AC32" s="73"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="76"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="73"/>
-      <c r="AC33" s="73"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="76"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="73"/>
-      <c r="AB34" s="73"/>
-      <c r="AC34" s="73"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="78"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="73"/>
-      <c r="AC35" s="73"/>
-    </row>
-    <row r="36" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="73"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="73"/>
-      <c r="Z36" s="73"/>
-      <c r="AA36" s="73"/>
-      <c r="AB36" s="73"/>
-      <c r="AC36" s="73"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="80"/>
-      <c r="R37" s="80"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="80"/>
-      <c r="V37" s="80"/>
-      <c r="W37" s="80"/>
-      <c r="X37" s="80"/>
-      <c r="Y37" s="80"/>
-      <c r="Z37" s="80"/>
-      <c r="AA37" s="80"/>
-      <c r="AB37" s="80"/>
-      <c r="AC37" s="80"/>
+      <c r="A30" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B29:AC29"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
